--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black-browed Albatross_Kerguelen.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black-browed Albatross_Kerguelen.xlsx
@@ -4259,13 +4259,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D49ACB-2FBC-4A6E-86AD-2BADDD41F84F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F5B5DE-4D17-4407-B75D-2A786EAA603A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE2A18D-E5CC-442E-B8A5-0545F2E4AB4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3679F2D-D4FD-4D61-BA37-416CAE9E203C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A66E50D-C477-4E05-8488-473AF9A16BD3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9190309-ADFA-436D-9392-5446954AEAC4}"/>
 </file>